--- a/biology/Histoire de la zoologie et de la botanique/François_Vautier/François_Vautier.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/François_Vautier/François_Vautier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Fran%C3%A7ois_Vautier</t>
+          <t>François_Vautier</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">François Vautier (écrit parfois Vauthier), né en 1589 à Arles et mort le 4 juillet 1652 à Paris, est un médecin et botaniste français[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">François Vautier (écrit parfois Vauthier), né en 1589 à Arles et mort le 4 juillet 1652 à Paris, est un médecin et botaniste français.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Fran%C3%A7ois_Vautier</t>
+          <t>François_Vautier</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,12 +525,87 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Formation à Montpellier
-Vautier obtient son titre de médecin en 1612 à Montpellier.
-Médecin des Grands
-Il est le médecin personnel et un proche de Marie de Médicis, ce qui déplait à Richelieu et ce qui lui vaut la prison. Libéré après la mort du cardinal en 1642.
-Premier médecin du roi
-Il est nommé à la charge de Premier médecin du roi Louis XIV en 1646. Il soigne Monsieur, frère unique de Louis XIV, ce qui lui vaut de recevoir l'abbaye de Saint-Taurin d'Évreux[2].
+          <t>Formation à Montpellier</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Vautier obtient son titre de médecin en 1612 à Montpellier.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>François_Vautier</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fran%C3%A7ois_Vautier</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Médecin des Grands</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est le médecin personnel et un proche de Marie de Médicis, ce qui déplait à Richelieu et ce qui lui vaut la prison. Libéré après la mort du cardinal en 1642.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>François_Vautier</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fran%C3%A7ois_Vautier</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Premier médecin du roi</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est nommé à la charge de Premier médecin du roi Louis XIV en 1646. Il soigne Monsieur, frère unique de Louis XIV, ce qui lui vaut de recevoir l'abbaye de Saint-Taurin d'Évreux.
 Il est surintendant du Jardin du roi et y introduit l'enseignement de l'anatomie.
 Vautier est l'un des premiers à utiliser de l'écorce de quinquina.
 </t>
